--- a/application/plugins/Reports_stock_movements/Reports_stock_movements.xlsx
+++ b/application/plugins/Reports_stock_movements/Reports_stock_movements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8052" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="9168" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Всего</t>
   </si>
@@ -137,6 +137,39 @@
   </si>
   <si>
     <t>{$v-&gt;input-&gt;include_vat}</t>
+  </si>
+  <si>
+    <t>Подробный отчет</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;stock_iqty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;stock_isum}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;buy_qty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;buy_sum}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;sell_qty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;sell_sum}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;stock_fqty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;stock_fsum}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;group_by} / {$v-&gt;rows[]-&gt;_product_code} / {$v-&gt;rows[]-&gt;ru}</t>
+  </si>
+  <si>
+    <t>Группа / Код /  Название</t>
   </si>
 </sst>
 </file>
@@ -425,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -454,30 +487,36 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,17 +526,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,134 +843,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="25"/>
+      <c r="H12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -982,7 +1021,7 @@
       <c r="H14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1026,8 +1065,122 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1037,14 +1190,8 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/plugins/Reports_stock_movements/Reports_stock_movements.xlsx
+++ b/application/plugins/Reports_stock_movements/Reports_stock_movements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9168" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="10284" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Всего</t>
   </si>
@@ -137,39 +137,6 @@
   </si>
   <si>
     <t>{$v-&gt;input-&gt;include_vat}</t>
-  </si>
-  <si>
-    <t>Подробный отчет</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;stock_iqty}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;stock_isum}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;buy_qty}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;buy_sum}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;sell_qty}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;sell_sum}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;stock_fqty}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;stock_fsum}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;group_by} / {$v-&gt;rows[]-&gt;_product_code} / {$v-&gt;rows[]-&gt;ru}</t>
-  </si>
-  <si>
-    <t>Группа / Код /  Название</t>
   </si>
 </sst>
 </file>
@@ -458,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -493,6 +460,27 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -510,33 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,121 +817,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="26"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1065,122 +1026,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
+  <mergeCells count="15">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1190,6 +1037,12 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
